--- a/Linajes_RSI_DOP_V2/DataLineage_slv_maz_supply_sap_dop_do_mch1.xlsx
+++ b/Linajes_RSI_DOP_V2/DataLineage_slv_maz_supply_sap_dop_do_mch1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jramiroj_emeal_nttdata_com/Documents/Desktop/Proyectos/1. AB-inBev/GIT-Interno/RSI/Linajes_RSI_DOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jramiroj_emeal_nttdata_com/Documents/Desktop/Proyectos/1. AB-inBev/GIT-Interno/RSI/Linajes_RSI_DOP_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{193F2B38-F462-455B-9839-6E3C6A0DB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531F5DBB-81E5-4E6C-B570-71A4E2AE0B58}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{193F2B38-F462-455B-9839-6E3C6A0DB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269C06AF-A93D-4A94-8931-B55E8AC219C6}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{ECF1D286-4AF2-4BA9-9C35-C211CBDBC033}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>Update date</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>DATS</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>raw/data/maz/supply/sap_dop/do_MCH1</t>
+  </si>
+  <si>
+    <t>Production Management</t>
   </si>
 </sst>
 </file>
@@ -984,10 +984,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1290,8 +1286,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:DJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:V42"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1732,19 +1728,19 @@
     </row>
     <row r="3" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>39</v>
@@ -1774,28 +1770,28 @@
         <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>39</v>
@@ -1807,40 +1803,40 @@
         <v>1</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>40</v>
@@ -1861,49 +1857,49 @@
         <v>1</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ3" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BY3" s="11">
         <v>3</v>
@@ -1915,13 +1911,13 @@
         <v>1</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH3" s="13"/>
       <c r="CI3" s="13"/>
@@ -1955,28 +1951,28 @@
     </row>
     <row r="4" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>47</v>
@@ -1997,76 +1993,76 @@
         <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AI4" s="1">
         <v>2</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR4" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>46</v>
@@ -2084,46 +2080,46 @@
         <v>2</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ4" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>30</v>
@@ -2138,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH4" s="13"/>
       <c r="CI4" s="13"/>
@@ -2178,28 +2174,28 @@
     </row>
     <row r="5" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>47</v>
@@ -2220,76 +2216,76 @@
         <v>42</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI5" s="1">
         <v>3</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU5" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>46</v>
@@ -2307,46 +2303,46 @@
         <v>3</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ5" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>30</v>
@@ -2361,13 +2357,13 @@
         <v>3</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH5" s="13"/>
       <c r="CI5" s="13"/>
@@ -2401,28 +2397,28 @@
     </row>
     <row r="6" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>47</v>
@@ -2437,76 +2433,76 @@
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI6" s="1">
         <v>4</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU6" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>46</v>
@@ -2524,46 +2520,46 @@
         <v>4</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ6" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>30</v>
@@ -2578,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH6" s="13"/>
       <c r="CI6" s="13"/>
@@ -2612,31 +2608,31 @@
     </row>
     <row r="7" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J7" s="11">
         <v>8</v>
@@ -2648,76 +2644,76 @@
         <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X7" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="AI7" s="1">
         <v>5</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>46</v>
@@ -2735,46 +2731,46 @@
         <v>5</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ7" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>48</v>
@@ -2792,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH7" s="13"/>
       <c r="CI7" s="13"/>
@@ -2826,28 +2822,28 @@
     </row>
     <row r="8" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>47</v>
@@ -2862,76 +2858,76 @@
         <v>6</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X8" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="AI8" s="1">
         <v>6</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR8" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>46</v>
@@ -2949,46 +2945,46 @@
         <v>6</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ8" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>30</v>
@@ -3003,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH8" s="13"/>
       <c r="CI8" s="13"/>
@@ -3037,28 +3033,28 @@
     </row>
     <row r="9" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>47</v>
@@ -3073,76 +3069,76 @@
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X9" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AI9" s="1">
         <v>7</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR9" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU9" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>46</v>
@@ -3160,46 +3156,46 @@
         <v>7</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ9" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW9" s="1" t="s">
         <v>30</v>
@@ -3214,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH9" s="13"/>
       <c r="CI9" s="13"/>
@@ -3248,31 +3244,31 @@
     </row>
     <row r="10" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J10" s="11">
         <v>8</v>
@@ -3284,76 +3280,76 @@
         <v>8</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X10" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="AI10" s="1">
         <v>8</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR10" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU10" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>46</v>
@@ -3371,46 +3367,46 @@
         <v>8</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ10" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW10" s="1" t="s">
         <v>48</v>
@@ -3428,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH10" s="13"/>
       <c r="CI10" s="13"/>
@@ -3462,31 +3458,31 @@
     </row>
     <row r="11" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J11" s="11">
         <v>8</v>
@@ -3498,76 +3494,76 @@
         <v>9</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X11" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="AI11" s="1">
         <v>9</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU11" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>46</v>
@@ -3585,46 +3581,46 @@
         <v>9</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ11" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW11" s="1" t="s">
         <v>48</v>
@@ -3642,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH11" s="13"/>
       <c r="CI11" s="13"/>
@@ -3676,31 +3672,31 @@
     </row>
     <row r="12" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J12" s="11">
         <v>8</v>
@@ -3712,76 +3708,76 @@
         <v>10</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X12" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AI12" s="1">
         <v>10</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR12" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU12" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>46</v>
@@ -3799,46 +3795,46 @@
         <v>10</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ12" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW12" s="1" t="s">
         <v>48</v>
@@ -3856,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH12" s="13"/>
       <c r="CI12" s="13"/>
@@ -3890,28 +3886,28 @@
     </row>
     <row r="13" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>47</v>
@@ -3926,76 +3922,76 @@
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X13" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI13" s="1">
         <v>11</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR13" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU13" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>46</v>
@@ -4013,46 +4009,46 @@
         <v>11</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ13" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW13" s="1" t="s">
         <v>30</v>
@@ -4067,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH13" s="13"/>
       <c r="CI13" s="13"/>
@@ -4101,28 +4097,28 @@
     </row>
     <row r="14" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>47</v>
@@ -4137,76 +4133,76 @@
         <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X14" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI14" s="1">
         <v>12</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR14" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU14" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>46</v>
@@ -4224,46 +4220,46 @@
         <v>12</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ14" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW14" s="1" t="s">
         <v>30</v>
@@ -4278,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH14" s="13"/>
       <c r="CI14" s="13"/>
@@ -4312,31 +4308,31 @@
     </row>
     <row r="15" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J15" s="11">
         <v>8</v>
@@ -4348,76 +4344,76 @@
         <v>13</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X15" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI15" s="1">
         <v>13</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU15" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>46</v>
@@ -4435,46 +4431,46 @@
         <v>13</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ15" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW15" s="1" t="s">
         <v>48</v>
@@ -4492,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH15" s="13"/>
       <c r="CI15" s="13"/>
@@ -4526,28 +4522,28 @@
     </row>
     <row r="16" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>47</v>
@@ -4562,76 +4558,76 @@
         <v>14</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X16" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI16" s="1">
         <v>14</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR16" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU16" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>46</v>
@@ -4649,46 +4645,46 @@
         <v>14</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ16" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW16" s="1" t="s">
         <v>30</v>
@@ -4703,7 +4699,7 @@
         <v>14</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH16" s="13"/>
       <c r="CI16" s="13"/>
@@ -4737,28 +4733,28 @@
     </row>
     <row r="17" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>47</v>
@@ -4773,76 +4769,76 @@
         <v>15</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X17" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI17" s="1">
         <v>15</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU17" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AY17" s="1" t="s">
         <v>46</v>
@@ -4860,46 +4856,46 @@
         <v>15</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ17" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW17" s="1" t="s">
         <v>30</v>
@@ -4914,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH17" s="13"/>
       <c r="CI17" s="13"/>
@@ -4948,28 +4944,28 @@
     </row>
     <row r="18" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>47</v>
@@ -4984,76 +4980,76 @@
         <v>16</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X18" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI18" s="1">
         <v>16</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR18" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU18" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY18" s="1" t="s">
         <v>46</v>
@@ -5071,46 +5067,46 @@
         <v>16</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ18" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW18" s="1" t="s">
         <v>30</v>
@@ -5125,7 +5121,7 @@
         <v>16</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH18" s="13"/>
       <c r="CI18" s="13"/>
@@ -5159,28 +5155,28 @@
     </row>
     <row r="19" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>47</v>
@@ -5195,76 +5191,76 @@
         <v>17</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X19" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AI19" s="1">
         <v>17</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR19" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU19" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AY19" s="1" t="s">
         <v>46</v>
@@ -5282,46 +5278,46 @@
         <v>17</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ19" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW19" s="1" t="s">
         <v>30</v>
@@ -5336,7 +5332,7 @@
         <v>17</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH19" s="13"/>
       <c r="CI19" s="13"/>
@@ -5370,28 +5366,28 @@
     </row>
     <row r="20" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>47</v>
@@ -5406,76 +5402,76 @@
         <v>18</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X20" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="AI20" s="1">
         <v>18</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR20" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU20" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY20" s="1" t="s">
         <v>46</v>
@@ -5493,46 +5489,46 @@
         <v>18</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ20" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW20" s="1" t="s">
         <v>30</v>
@@ -5547,7 +5543,7 @@
         <v>18</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH20" s="13"/>
       <c r="CI20" s="13"/>
@@ -5581,31 +5577,31 @@
     </row>
     <row r="21" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="J21" s="11">
         <v>3</v>
@@ -5617,76 +5613,76 @@
         <v>19</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X21" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AI21" s="1">
         <v>19</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU21" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY21" s="1" t="s">
         <v>46</v>
@@ -5704,46 +5700,46 @@
         <v>19</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ21" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BT21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW21" s="1" t="s">
         <v>30</v>
@@ -5758,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH21" s="13"/>
       <c r="CI21" s="13"/>
@@ -5792,31 +5788,31 @@
     </row>
     <row r="22" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J22" s="11">
         <v>8</v>
@@ -5828,76 +5824,76 @@
         <v>20</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X22" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AI22" s="1">
         <v>20</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR22" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU22" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AY22" s="1" t="s">
         <v>46</v>
@@ -5915,46 +5911,46 @@
         <v>20</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ22" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BU22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW22" s="1" t="s">
         <v>48</v>
@@ -5972,7 +5968,7 @@
         <v>20</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH22" s="13"/>
       <c r="CI22" s="13"/>
@@ -6006,31 +6002,31 @@
     </row>
     <row r="23" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J23" s="11">
         <v>8</v>
@@ -6042,76 +6038,76 @@
         <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X23" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI23" s="1">
         <v>21</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR23" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU23" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY23" s="1" t="s">
         <v>46</v>
@@ -6129,46 +6125,46 @@
         <v>21</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ23" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BT23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW23" s="1" t="s">
         <v>48</v>
@@ -6186,7 +6182,7 @@
         <v>21</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH23" s="13"/>
       <c r="CI23" s="13"/>
@@ -6220,31 +6216,31 @@
     </row>
     <row r="24" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J24" s="11">
         <v>8</v>
@@ -6256,76 +6252,76 @@
         <v>22</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X24" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI24" s="1">
         <v>22</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR24" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU24" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY24" s="1" t="s">
         <v>46</v>
@@ -6343,46 +6339,46 @@
         <v>22</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ24" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BT24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW24" s="1" t="s">
         <v>48</v>
@@ -6400,7 +6396,7 @@
         <v>22</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH24" s="13"/>
       <c r="CI24" s="13"/>
@@ -6434,31 +6430,31 @@
     </row>
     <row r="25" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J25" s="11">
         <v>8</v>
@@ -6470,76 +6466,76 @@
         <v>23</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X25" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI25" s="1">
         <v>23</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR25" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU25" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU25" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY25" s="1" t="s">
         <v>46</v>
@@ -6557,46 +6553,46 @@
         <v>23</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ25" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ25" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW25" s="1" t="s">
         <v>48</v>
@@ -6614,7 +6610,7 @@
         <v>23</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH25" s="13"/>
       <c r="CI25" s="13"/>
@@ -6648,31 +6644,31 @@
     </row>
     <row r="26" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J26" s="11">
         <v>8</v>
@@ -6684,76 +6680,76 @@
         <v>24</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X26" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI26" s="1">
         <v>24</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR26" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR26" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU26" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY26" s="1" t="s">
         <v>46</v>
@@ -6771,46 +6767,46 @@
         <v>24</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ26" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BT26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW26" s="1" t="s">
         <v>48</v>
@@ -6828,7 +6824,7 @@
         <v>24</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH26" s="13"/>
       <c r="CI26" s="13"/>
@@ -6862,31 +6858,31 @@
     </row>
     <row r="27" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J27" s="11">
         <v>8</v>
@@ -6898,76 +6894,76 @@
         <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X27" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI27" s="1">
         <v>25</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR27" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU27" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY27" s="1" t="s">
         <v>46</v>
@@ -6985,46 +6981,46 @@
         <v>25</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ27" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW27" s="1" t="s">
         <v>48</v>
@@ -7042,7 +7038,7 @@
         <v>25</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH27" s="13"/>
       <c r="CI27" s="13"/>
@@ -7076,31 +7072,31 @@
     </row>
     <row r="28" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J28" s="11">
         <v>8</v>
@@ -7112,76 +7108,76 @@
         <v>26</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X28" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI28" s="1">
         <v>26</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR28" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU28" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY28" s="1" t="s">
         <v>46</v>
@@ -7199,46 +7195,46 @@
         <v>26</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ28" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BT28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW28" s="1" t="s">
         <v>48</v>
@@ -7256,7 +7252,7 @@
         <v>26</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH28" s="13"/>
       <c r="CI28" s="13"/>
@@ -7290,28 +7286,28 @@
     </row>
     <row r="29" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>47</v>
@@ -7326,76 +7322,76 @@
         <v>27</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X29" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="AI29" s="1">
         <v>27</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR29" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU29" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY29" s="1" t="s">
         <v>46</v>
@@ -7413,46 +7409,46 @@
         <v>27</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ29" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BT29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BU29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW29" s="1" t="s">
         <v>30</v>
@@ -7467,7 +7463,7 @@
         <v>27</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH29" s="13"/>
       <c r="CI29" s="13"/>
@@ -7501,28 +7497,28 @@
     </row>
     <row r="30" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>47</v>
@@ -7537,76 +7533,76 @@
         <v>28</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X30" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="AI30" s="1">
         <v>28</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR30" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU30" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY30" s="1" t="s">
         <v>46</v>
@@ -7624,46 +7620,46 @@
         <v>28</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ30" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BT30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BU30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW30" s="1" t="s">
         <v>30</v>
@@ -7678,7 +7674,7 @@
         <v>28</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH30" s="13"/>
       <c r="CI30" s="13"/>
@@ -7712,28 +7708,28 @@
     </row>
     <row r="31" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>47</v>
@@ -7748,76 +7744,76 @@
         <v>29</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X31" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="AI31" s="1">
         <v>29</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR31" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU31" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AY31" s="1" t="s">
         <v>46</v>
@@ -7835,46 +7831,46 @@
         <v>29</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BT31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW31" s="1" t="s">
         <v>30</v>
@@ -7889,7 +7885,7 @@
         <v>29</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH31" s="13"/>
       <c r="CI31" s="13"/>
@@ -7923,31 +7919,31 @@
     </row>
     <row r="32" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J32" s="11">
         <v>8</v>
@@ -7959,76 +7955,76 @@
         <v>30</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X32" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI32" s="1">
         <v>30</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR32" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU32" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AX32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AY32" s="1" t="s">
         <v>46</v>
@@ -8046,46 +8042,46 @@
         <v>30</v>
       </c>
       <c r="BH32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ32" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BT32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BU32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW32" s="1" t="s">
         <v>48</v>
@@ -8103,7 +8099,7 @@
         <v>30</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH32" s="13"/>
       <c r="CI32" s="13"/>
@@ -8137,31 +8133,31 @@
     </row>
     <row r="33" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="J33" s="11">
         <v>8</v>
@@ -8173,76 +8169,76 @@
         <v>31</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U33" s="1" t="s">
+      <c r="V33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X33" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB33" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="AI33" s="1">
         <v>31</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR33" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU33" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AY33" s="1" t="s">
         <v>46</v>
@@ -8260,46 +8256,46 @@
         <v>31</v>
       </c>
       <c r="BH33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ33" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ33" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BT33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BU33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BW33" s="1" t="s">
         <v>48</v>
@@ -8317,7 +8313,7 @@
         <v>31</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH33" s="13"/>
       <c r="CI33" s="13"/>
@@ -8351,31 +8347,31 @@
     </row>
     <row r="34" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J34" s="11">
         <v>18</v>
@@ -8387,76 +8383,76 @@
         <v>32</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U34" s="1" t="s">
+      <c r="V34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X34" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB34" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="AI34" s="1">
         <v>32</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR34" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR34" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU34" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AY34" s="1" t="s">
         <v>46</v>
@@ -8474,49 +8470,49 @@
         <v>32</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ34" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BT34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BU34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BY34" s="11">
         <v>18</v>
@@ -8528,7 +8524,7 @@
         <v>32</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH34" s="13"/>
       <c r="CI34" s="13"/>
@@ -8562,28 +8558,28 @@
     </row>
     <row r="35" spans="1:114" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>47</v>
@@ -8598,76 +8594,76 @@
         <v>33</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="X35" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="AA35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB35" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="AI35" s="1">
         <v>33</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR35" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AR35" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="AS35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AT35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU35" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AU35" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AV35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AY35" s="1" t="s">
         <v>46</v>
@@ -8685,46 +8681,46 @@
         <v>33</v>
       </c>
       <c r="BH35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BJ35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BP35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BQ35" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BR35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BT35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BU35" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BW35" s="1" t="s">
         <v>30</v>
@@ -8739,7 +8735,7 @@
         <v>33</v>
       </c>
       <c r="CD35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CH35" s="13"/>
       <c r="CI35" s="13"/>
@@ -8789,33 +8785,33 @@
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S36" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U36" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T36" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U36" s="14" t="s">
+      <c r="V36" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W36" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V36" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W36" s="14" t="s">
+      <c r="X36" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB36" s="14" t="s">
         <v>50</v>
@@ -8832,37 +8828,37 @@
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM36" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN36" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO36" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP36" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR36" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR36" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS36" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT36" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU36" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU36" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV36" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW36" s="14" t="s">
         <v>49</v>
@@ -8886,37 +8882,37 @@
       <c r="BF36" s="14"/>
       <c r="BG36" s="14"/>
       <c r="BH36" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI36" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ36" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL36" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM36" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN36" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO36" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ36" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ36" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR36" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS36" s="10" t="s">
         <v>49</v>
@@ -8925,7 +8921,7 @@
         <v>50</v>
       </c>
       <c r="BU36" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV36" s="10"/>
       <c r="BW36" s="10" t="s">
@@ -8940,7 +8936,7 @@
       <c r="CB36" s="10"/>
       <c r="CC36" s="10"/>
       <c r="CD36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE36" s="12"/>
       <c r="CF36" s="12"/>
@@ -8964,33 +8960,33 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S37" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T37" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U37" s="14" t="s">
+      <c r="V37" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W37" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V37" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W37" s="14" t="s">
+      <c r="X37" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X37" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB37" s="14" t="s">
         <v>52</v>
@@ -9007,37 +9003,37 @@
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
       <c r="AL37" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM37" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN37" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP37" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR37" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR37" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS37" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT37" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU37" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU37" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV37" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW37" s="14" t="s">
         <v>51</v>
@@ -9061,37 +9057,37 @@
       <c r="BF37" s="14"/>
       <c r="BG37" s="14"/>
       <c r="BH37" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ37" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK37" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL37" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM37" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN37" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP37" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ37" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ37" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR37" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS37" s="10" t="s">
         <v>51</v>
@@ -9100,7 +9096,7 @@
         <v>52</v>
       </c>
       <c r="BU37" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV37" s="10"/>
       <c r="BW37" s="10" t="s">
@@ -9115,7 +9111,7 @@
       <c r="CB37" s="10"/>
       <c r="CC37" s="10"/>
       <c r="CD37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE37" s="12"/>
       <c r="CF37" s="12"/>
@@ -9139,33 +9135,33 @@
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S38" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U38" s="14" t="s">
+      <c r="V38" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W38" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V38" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W38" s="14" t="s">
+      <c r="X38" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X38" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB38" s="14" t="s">
         <v>54</v>
@@ -9182,37 +9178,37 @@
       <c r="AJ38" s="14"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN38" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP38" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR38" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR38" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS38" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU38" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU38" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV38" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW38" s="14" t="s">
         <v>53</v>
@@ -9236,37 +9232,37 @@
       <c r="BF38" s="14"/>
       <c r="BG38" s="14"/>
       <c r="BH38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ38" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK38" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL38" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM38" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN38" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ38" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ38" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR38" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS38" s="10" t="s">
         <v>53</v>
@@ -9275,7 +9271,7 @@
         <v>54</v>
       </c>
       <c r="BU38" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV38" s="10"/>
       <c r="BW38" s="10" t="s">
@@ -9290,7 +9286,7 @@
       <c r="CB38" s="10"/>
       <c r="CC38" s="10"/>
       <c r="CD38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE38" s="12"/>
       <c r="CF38" s="12"/>
@@ -9314,33 +9310,33 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S39" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U39" s="14" t="s">
+      <c r="V39" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W39" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V39" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W39" s="14" t="s">
+      <c r="X39" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB39" s="14" t="s">
         <v>56</v>
@@ -9357,37 +9353,37 @@
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM39" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN39" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO39" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP39" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ39" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR39" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR39" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT39" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU39" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU39" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV39" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW39" s="14" t="s">
         <v>55</v>
@@ -9411,37 +9407,37 @@
       <c r="BF39" s="14"/>
       <c r="BG39" s="14"/>
       <c r="BH39" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ39" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK39" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM39" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN39" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ39" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR39" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS39" s="10" t="s">
         <v>55</v>
@@ -9450,7 +9446,7 @@
         <v>56</v>
       </c>
       <c r="BU39" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV39" s="10"/>
       <c r="BW39" s="10" t="s">
@@ -9465,7 +9461,7 @@
       <c r="CB39" s="10"/>
       <c r="CC39" s="10"/>
       <c r="CD39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE39" s="12"/>
       <c r="CF39" s="12"/>
@@ -9489,28 +9485,28 @@
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S40" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U40" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U40" s="14" t="s">
+      <c r="V40" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W40" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V40" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W40" s="14" t="s">
+      <c r="X40" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X40" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
@@ -9532,37 +9528,37 @@
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14"/>
       <c r="AL40" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM40" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN40" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO40" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP40" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ40" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR40" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR40" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS40" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT40" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU40" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU40" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV40" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW40" s="14" t="s">
         <v>57</v>
@@ -9586,37 +9582,37 @@
       <c r="BF40" s="14"/>
       <c r="BG40" s="14"/>
       <c r="BH40" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ40" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK40" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL40" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM40" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN40" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ40" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ40" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR40" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS40" s="10" t="s">
         <v>57</v>
@@ -9625,7 +9621,7 @@
         <v>58</v>
       </c>
       <c r="BU40" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV40" s="10"/>
       <c r="BW40" s="10" t="s">
@@ -9640,7 +9636,7 @@
       <c r="CB40" s="10"/>
       <c r="CC40" s="10"/>
       <c r="CD40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE40" s="12"/>
       <c r="CF40" s="12"/>
@@ -9664,28 +9660,28 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S41" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U41" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T41" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U41" s="14" t="s">
+      <c r="V41" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W41" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V41" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W41" s="14" t="s">
+      <c r="X41" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X41" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
@@ -9707,37 +9703,37 @@
       <c r="AJ41" s="14"/>
       <c r="AK41" s="14"/>
       <c r="AL41" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM41" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN41" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP41" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ41" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR41" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR41" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT41" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU41" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU41" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV41" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW41" s="14" t="s">
         <v>59</v>
@@ -9761,37 +9757,37 @@
       <c r="BF41" s="14"/>
       <c r="BG41" s="14"/>
       <c r="BH41" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI41" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ41" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK41" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL41" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM41" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN41" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ41" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR41" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS41" s="10" t="s">
         <v>59</v>
@@ -9800,7 +9796,7 @@
         <v>60</v>
       </c>
       <c r="BU41" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BV41" s="10"/>
       <c r="BW41" s="10" t="s">
@@ -9815,7 +9811,7 @@
       <c r="CB41" s="10"/>
       <c r="CC41" s="10"/>
       <c r="CD41" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE41" s="12"/>
       <c r="CF41" s="12"/>
@@ -9839,36 +9835,36 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S42" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T42" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U42" s="14" t="s">
+      <c r="V42" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="W42" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V42" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="W42" s="14" t="s">
+      <c r="X42" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB42" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="AB42" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="AC42" s="14"/>
       <c r="AD42" s="14"/>
@@ -9882,37 +9878,37 @@
       <c r="AJ42" s="14"/>
       <c r="AK42" s="14"/>
       <c r="AL42" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM42" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AN42" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP42" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ42" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR42" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR42" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS42" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT42" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU42" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU42" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV42" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW42" s="14" t="s">
         <v>61</v>
@@ -9938,50 +9934,50 @@
       <c r="BF42" s="14"/>
       <c r="BG42" s="14"/>
       <c r="BH42" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ42" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK42" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL42" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM42" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN42" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO42" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP42" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ42" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ42" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR42" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS42" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT42" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="BT42" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="BU42" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BV42" s="10"/>
       <c r="BW42" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BX42" s="10"/>
       <c r="BY42" s="10"/>
@@ -9992,7 +9988,7 @@
       <c r="CB42" s="10"/>
       <c r="CC42" s="10"/>
       <c r="CD42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE42" s="12"/>
       <c r="CF42" s="12"/>
@@ -10003,31 +9999,31 @@
         <v>44</v>
       </c>
       <c r="AN43" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP43" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ43" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR43" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR43" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS43" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT43" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU43" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU43" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV43" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW43" s="14" t="s">
         <v>67</v>
@@ -10053,37 +10049,37 @@
       <c r="BF43" s="14"/>
       <c r="BG43" s="14"/>
       <c r="BH43" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ43" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK43" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL43" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM43" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN43" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ43" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ43" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR43" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS43" s="10" t="s">
         <v>69</v>
@@ -10107,7 +10103,7 @@
       <c r="CB43" s="10"/>
       <c r="CC43" s="10"/>
       <c r="CD43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE43" s="12"/>
       <c r="CF43" s="12"/>
@@ -10118,31 +10114,31 @@
         <v>44</v>
       </c>
       <c r="AN44" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP44" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ44" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR44" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR44" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS44" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT44" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU44" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU44" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV44" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW44" s="14" t="s">
         <v>64</v>
@@ -10168,37 +10164,37 @@
       <c r="BF44" s="14"/>
       <c r="BG44" s="14"/>
       <c r="BH44" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="BJ44" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BK44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="BL44" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM44" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN44" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO44" s="10" t="s">
         <v>45</v>
       </c>
       <c r="BP44" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ44" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BQ44" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="BR44" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BS44" s="10" t="s">
         <v>73</v>
@@ -10222,7 +10218,7 @@
       <c r="CB44" s="10"/>
       <c r="CC44" s="10"/>
       <c r="CD44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CE44" s="12"/>
       <c r="CF44" s="12"/>
@@ -10233,37 +10229,37 @@
         <v>44</v>
       </c>
       <c r="AN45" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP45" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ45" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR45" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR45" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS45" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT45" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU45" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU45" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV45" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX45" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="AX45" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="AY45" s="10" t="s">
         <v>63</v>
@@ -10272,7 +10268,7 @@
         <v>63</v>
       </c>
       <c r="BA45" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB45" s="10" t="s">
         <v>63</v>
@@ -10285,7 +10281,7 @@
       <c r="BF45" s="10"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.35">
@@ -10293,31 +10289,31 @@
         <v>44</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ46" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR46" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR46" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT46" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU46" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU46" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV46" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW46" s="14" t="s">
         <v>69</v>
@@ -10345,7 +10341,7 @@
       <c r="BF46" s="14"/>
       <c r="BG46" s="14"/>
       <c r="BH46" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:114" x14ac:dyDescent="0.35">
@@ -10353,31 +10349,31 @@
         <v>44</v>
       </c>
       <c r="AN47" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="AP47" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AQ47" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR47" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AR47" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AS47" s="14" t="s">
         <v>45</v>
       </c>
       <c r="AT47" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU47" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AU47" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AV47" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AW47" s="14" t="s">
         <v>73</v>
@@ -10401,7 +10397,7 @@
       <c r="BF47" s="14"/>
       <c r="BG47" s="14"/>
       <c r="BH47" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -10422,38 +10418,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ad84067-1209-43f0-a16f-521bc68c1170">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d">
-      <UserInfo>
-        <DisplayName>Luis Alberto Venensuelo Barrera</DisplayName>
-        <AccountId>168</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>David Vazquez Ocampo</DisplayName>
-        <AccountId>170</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E08BC8B767A8C1419AFA3B6A18BA7724" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c02ced6231b0efa3af0c09c3710c750">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ad84067-1209-43f0-a16f-521bc68c1170" xmlns:ns3="552c3589-79d5-48f0-ae47-bdc4c962823d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49962bc04fdcab5ba86746962680b4f9" ns2:_="" ns3:_="">
     <xsd:import namespace="3ad84067-1209-43f0-a16f-521bc68c1170"/>
@@ -10676,6 +10640,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ad84067-1209-43f0-a16f-521bc68c1170">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="552c3589-79d5-48f0-ae47-bdc4c962823d">
+      <UserInfo>
+        <DisplayName>Luis Alberto Venensuelo Barrera</DisplayName>
+        <AccountId>168</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>David Vazquez Ocampo</DisplayName>
+        <AccountId>170</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AB751C6-346A-4E5B-9E22-1BDF57F1E004}">
   <ds:schemaRefs>
@@ -10685,25 +10681,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91103430-7D80-4807-B839-DAE12F761828}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ad84067-1209-43f0-a16f-521bc68c1170"/>
-    <ds:schemaRef ds:uri="552c3589-79d5-48f0-ae47-bdc4c962823d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C296C-2132-44DE-9423-67D384FAC3A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1EB2E1-02FE-44BB-A3B5-116A70AAAD73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10720,4 +10697,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C296C-2132-44DE-9423-67D384FAC3A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91103430-7D80-4807-B839-DAE12F761828}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ad84067-1209-43f0-a16f-521bc68c1170"/>
+    <ds:schemaRef ds:uri="552c3589-79d5-48f0-ae47-bdc4c962823d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>